--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a2-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H2">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J2">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>2972.356114896877</v>
+        <v>2668.724727105192</v>
       </c>
       <c r="R2">
-        <v>26751.20503407189</v>
+        <v>24018.52254394673</v>
       </c>
       <c r="S2">
-        <v>0.001866567546804724</v>
+        <v>0.001572635775514875</v>
       </c>
       <c r="T2">
-        <v>0.001866567546804724</v>
+        <v>0.001572635775514874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H3">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J3">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>3267.999998493497</v>
+        <v>3091.81632163338</v>
       </c>
       <c r="R3">
-        <v>29411.99998644147</v>
+        <v>27826.34689470041</v>
       </c>
       <c r="S3">
-        <v>0.002052224734975096</v>
+        <v>0.001821956723125832</v>
       </c>
       <c r="T3">
-        <v>0.002052224734975095</v>
+        <v>0.001821956723125832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H4">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J4">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>1811.394276131194</v>
+        <v>2346.820106720189</v>
       </c>
       <c r="R4">
-        <v>16302.54848518075</v>
+        <v>21121.3809604817</v>
       </c>
       <c r="S4">
-        <v>0.001137511670741252</v>
+        <v>0.001382942654609851</v>
       </c>
       <c r="T4">
-        <v>0.001137511670741252</v>
+        <v>0.001382942654609851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.36022366666667</v>
+        <v>18.31647966666667</v>
       </c>
       <c r="H5">
-        <v>58.080671</v>
+        <v>54.949439</v>
       </c>
       <c r="I5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884006</v>
       </c>
       <c r="J5">
-        <v>0.005884129141485179</v>
+        <v>0.005487334033884005</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>1318.243889268986</v>
+        <v>1204.51146636156</v>
       </c>
       <c r="R5">
-        <v>11864.19500342087</v>
+        <v>10840.60319725404</v>
       </c>
       <c r="S5">
-        <v>0.0008278251889641079</v>
+        <v>0.0007097988806334486</v>
       </c>
       <c r="T5">
-        <v>0.0008278251889641079</v>
+        <v>0.0007097988806334485</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I6">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J6">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>485435.0262801322</v>
+        <v>460683.2378972186</v>
       </c>
       <c r="R6">
-        <v>4368915.23652119</v>
+        <v>4146149.141074967</v>
       </c>
       <c r="S6">
-        <v>0.3048414224646933</v>
+        <v>0.2714730874034574</v>
       </c>
       <c r="T6">
-        <v>0.3048414224646933</v>
+        <v>0.2714730874034573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I7">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J7">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>533718.5733571503</v>
@@ -883,10 +883,10 @@
         <v>4803467.160214352</v>
       </c>
       <c r="S7">
-        <v>0.3351623189302592</v>
+        <v>0.3145116144776255</v>
       </c>
       <c r="T7">
-        <v>0.3351623189302592</v>
+        <v>0.3145116144776254</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I8">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J8">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>295830.7127569519</v>
+        <v>405115.1003119317</v>
       </c>
       <c r="R8">
-        <v>2662476.414812567</v>
+        <v>3646035.902807385</v>
       </c>
       <c r="S8">
-        <v>0.1857745123515909</v>
+        <v>0.2387276939734851</v>
       </c>
       <c r="T8">
-        <v>0.1857745123515909</v>
+        <v>0.2387276939734851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>9485.536377</v>
       </c>
       <c r="I9">
-        <v>0.9609758299542277</v>
+        <v>0.9472399998689139</v>
       </c>
       <c r="J9">
-        <v>0.9609758299542278</v>
+        <v>0.9472399998689137</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>215291.0796333418</v>
+        <v>207926.3690150903</v>
       </c>
       <c r="R9">
-        <v>1937619.716700076</v>
+        <v>1871337.321135812</v>
       </c>
       <c r="S9">
-        <v>0.1351975762076844</v>
+        <v>0.122527604014346</v>
       </c>
       <c r="T9">
-        <v>0.1351975762076844</v>
+        <v>0.1225276040143459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H10">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I10">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J10">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>16425.00294723358</v>
+        <v>22678.53047360442</v>
       </c>
       <c r="R10">
-        <v>147825.0265251022</v>
+        <v>204106.7742624398</v>
       </c>
       <c r="S10">
-        <v>0.01031450346875472</v>
+        <v>0.01336408659786394</v>
       </c>
       <c r="T10">
-        <v>0.01031450346875472</v>
+        <v>0.01336408659786394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H11">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I11">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J11">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>18058.70748050568</v>
+        <v>26273.91651030567</v>
       </c>
       <c r="R11">
-        <v>162528.3673245511</v>
+        <v>236465.248592751</v>
       </c>
       <c r="S11">
-        <v>0.0113404302907766</v>
+        <v>0.01548278870703062</v>
       </c>
       <c r="T11">
-        <v>0.0113404302907766</v>
+        <v>0.01548278870703061</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H12">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I12">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J12">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>10009.62037319311</v>
+        <v>19943.0202619858</v>
       </c>
       <c r="R12">
-        <v>90086.583358738</v>
+        <v>179487.1823578722</v>
       </c>
       <c r="S12">
-        <v>0.006285798814885902</v>
+        <v>0.01175209523008278</v>
       </c>
       <c r="T12">
-        <v>0.006285798814885901</v>
+        <v>0.01175209523008278</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>106.9830526666667</v>
+        <v>155.6514383333333</v>
       </c>
       <c r="H13">
-        <v>320.949158</v>
+        <v>466.954315</v>
       </c>
       <c r="I13">
-        <v>0.03251522857790212</v>
+        <v>0.04663076369111781</v>
       </c>
       <c r="J13">
-        <v>0.03251522857790212</v>
+        <v>0.0466307636911178</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>7284.510647260363</v>
+        <v>10235.80653270196</v>
       </c>
       <c r="R13">
-        <v>65560.59582534328</v>
+        <v>92122.25879431765</v>
       </c>
       <c r="S13">
-        <v>0.0045744960034849</v>
+        <v>0.00603179315614048</v>
       </c>
       <c r="T13">
-        <v>0.0045744960034849</v>
+        <v>0.006031793156140479</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H14">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J14">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>315.6227020749457</v>
+        <v>312.184534954076</v>
       </c>
       <c r="R14">
-        <v>2840.604318674512</v>
+        <v>2809.660814586684</v>
       </c>
       <c r="S14">
-        <v>0.000198203401596228</v>
+        <v>0.0001839652337481048</v>
       </c>
       <c r="T14">
-        <v>0.000198203401596228</v>
+        <v>0.0001839652337481048</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H15">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J15">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>347.0159530131609</v>
+        <v>361.677332521112</v>
       </c>
       <c r="R15">
-        <v>3123.143577118448</v>
+        <v>3255.095992690009</v>
       </c>
       <c r="S15">
-        <v>0.0002179176017542405</v>
+        <v>0.0002131305288022202</v>
       </c>
       <c r="T15">
-        <v>0.0002179176017542405</v>
+        <v>0.0002131305288022201</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H16">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J16">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>192.3447709008626</v>
+        <v>274.528480287296</v>
       </c>
       <c r="R16">
-        <v>1731.102938107764</v>
+        <v>2470.756322585664</v>
       </c>
       <c r="S16">
-        <v>0.0001207878508775507</v>
+        <v>0.0001617751374327167</v>
       </c>
       <c r="T16">
-        <v>0.0001207878508775507</v>
+        <v>0.0001617751374327166</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.055785333333333</v>
+        <v>2.142642</v>
       </c>
       <c r="H17">
-        <v>6.167356</v>
+        <v>6.427926</v>
       </c>
       <c r="I17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843985</v>
       </c>
       <c r="J17">
-        <v>0.0006248123263850286</v>
+        <v>0.0006419024060843984</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>139.9790880505911</v>
+        <v>140.902449830718</v>
       </c>
       <c r="R17">
-        <v>1259.81179245532</v>
+        <v>1268.122048476462</v>
       </c>
       <c r="S17">
-        <v>8.790347215700943E-05</v>
+        <v>8.303150610135695E-05</v>
       </c>
       <c r="T17">
-        <v>8.790347215700943E-05</v>
+        <v>8.303150610135693E-05</v>
       </c>
     </row>
   </sheetData>
